--- a/data/Example-Initial-Countries.xlsx
+++ b/data/Example-Initial-Countries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludwik/AI-Spring-2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4EA380-32DA-D642-B8C3-8C0492DCED05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111E745C-A2B8-A941-9206-6064B3AD84FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16020" xr2:uid="{422514CD-EDDF-C04C-B93B-D29B983FDA2F}"/>
   </bookViews>
@@ -418,7 +418,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -454,10 +454,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -483,13 +483,13 @@
         <v>120</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
